--- a/DB設計書.xlsx
+++ b/DB設計書.xlsx
@@ -8,17 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m-matsuka\Desktop\GitHub_クローン\company_evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC23662-0CF0-42C5-AEE4-8448FAB594B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF18F94-5752-4918-A0EB-DD640903924E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{49359F61-E175-4E64-83B2-4241FAD3E8F3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{49359F61-E175-4E64-83B2-4241FAD3E8F3}"/>
   </bookViews>
   <sheets>
     <sheet name="E-R図" sheetId="10" r:id="rId1"/>
-    <sheet name="TM_self_check" sheetId="13" r:id="rId2"/>
-    <sheet name="TM_salary" sheetId="14" r:id="rId3"/>
+    <sheet name="TM_salary" sheetId="14" r:id="rId2"/>
+    <sheet name="TM_self_check" sheetId="13" r:id="rId3"/>
     <sheet name="TM_point" sheetId="11" r:id="rId4"/>
-    <sheet name="TE_noit_point" sheetId="3" r:id="rId5"/>
-    <sheet name="TE_User_Count" sheetId="4" state="hidden" r:id="rId6"/>
+    <sheet name="TM_noit_point" sheetId="3" r:id="rId5"/>
+    <sheet name="TM_staff" sheetId="17" r:id="rId6"/>
+    <sheet name="TM_ac_history" sheetId="18" r:id="rId7"/>
+    <sheet name="TE_staff_sc" sheetId="15" r:id="rId8"/>
+    <sheet name="TE_staff_cc" sheetId="16" r:id="rId9"/>
+    <sheet name="TE_User_Count" sheetId="4" state="hidden" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="192">
   <si>
     <t>テーブル論理名</t>
     <rPh sb="4" eb="6">
@@ -328,10 +332,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>※対象DB名：company_money_maneger</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>wday</t>
   </si>
   <si>
@@ -470,10 +470,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>no</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>self_check</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -492,10 +488,6 @@
   <si>
     <t>Expt</t>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>評価項目</t>
@@ -569,13 +561,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>削除サイン</t>
-    <rPh sb="0" eb="2">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>rank</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -593,10 +578,6 @@
   </si>
   <si>
     <t>上位ポイント</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>削除サイン</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -661,10 +642,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>タイトル区分</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>技管区分</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -694,10 +671,6 @@
   </si>
   <si>
     <t>5th_over</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>TE_noit_point</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -767,6 +740,350 @@
     <rPh sb="9" eb="11">
       <t>イガイ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>explanation</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>TM_noit_point</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>TE_staff_sc</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>社員自己評価テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>ジコヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>社員の自己評価の結果を格納するためのテーブル</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジコ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>社員番号</t>
+    <rPh sb="0" eb="4">
+      <t>シャインバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>評価項目の説明文</t>
+    <rPh sb="0" eb="4">
+      <t>ヒョウカコウモク</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>セツメイブン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SC+3桁の連番</t>
+    <rPh sb="3" eb="5">
+      <t>サンケタ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>レンバン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>登録日</t>
+    <rPh sb="0" eb="3">
+      <t>トウロクビ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>結果</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>staff_id</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>create_date</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>TE_staff_cc</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>会社評価コード</t>
+    <rPh sb="0" eb="2">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>自己評価コード</t>
+    <rPh sb="0" eb="4">
+      <t>ジコヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>sc_cd</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>自己評価コード</t>
+    <rPh sb="0" eb="4">
+      <t>ジコヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>sc_cd</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>TM_staff</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>社員テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>社員を管理するためのテーブル</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>生年月日</t>
+    <rPh sb="0" eb="4">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>入社日</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウシャビ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>状態</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>種別</t>
+    <rPh sb="0" eb="2">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>氏名</t>
+    <rPh sb="0" eb="2">
+      <t>シメイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>更新日</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>登録者</t>
+    <rPh sb="0" eb="3">
+      <t>トウロクシャ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>削除フラグ</t>
+  </si>
+  <si>
+    <t>削除フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>社会人歴</t>
+    <rPh sb="0" eb="4">
+      <t>シャカイジンレキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>IT経歴</t>
+    <rPh sb="2" eb="4">
+      <t>ケイレキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>IT以外経歴</t>
+    <rPh sb="2" eb="4">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケイレキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>削除フラグ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>削除フラグ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>staff_name</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>birthday</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>join_date</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>staff_kbn</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>society_history</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>it_history</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>noit_history</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>create_id</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>update_date</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>update_id</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ac_history_cd</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>TM_ac_history</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>学歴コード</t>
+    <rPh sb="0" eb="2">
+      <t>ガクレキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>学歴テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>ガクレキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>学歴を管理するためのテーブル</t>
+    <rPh sb="0" eb="2">
+      <t>ガクレキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ac_history_name</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>学歴内容</t>
+    <rPh sb="0" eb="2">
+      <t>ガクレキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>※対象DB名：company_evaluation</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1133,6 +1450,54 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1148,59 +1513,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2563,10 +2880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBDE19C-B165-487B-A0EF-9AB241E95748}">
-  <dimension ref="A1:AI28"/>
+  <dimension ref="A1:AI32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2656,34 +2973,34 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B3" s="30" t="s">
-        <v>49</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B5" s="29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B6" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B7" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F7" s="28" t="s">
         <v>41</v>
@@ -2694,16 +3011,16 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B8" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.4">
@@ -2711,13 +3028,13 @@
         <v>38</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.4">
@@ -2725,13 +3042,13 @@
         <v>39</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.4">
@@ -2739,77 +3056,77 @@
         <v>40</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.4">
       <c r="D12" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.4">
       <c r="D13" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F13" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="25" t="s">
         <v>82</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B15" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B16" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D16" s="25" t="s">
         <v>38</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.4">
@@ -2817,13 +3134,13 @@
         <v>39</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
@@ -2831,29 +3148,29 @@
         <v>40</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.4">
       <c r="F19" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D20" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
@@ -2864,58 +3181,64 @@
         <v>48</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B22" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B23" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D25" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="H25" s="29" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D26" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="H26" s="26" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D27" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="H27" s="27" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D28" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H30" s="29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H31" s="26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H32" s="27" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2929,228 +3252,228 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9F0380-6A5A-442D-8FC4-55232AE4172E}">
-  <dimension ref="A1:AA10"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57770D90-52BF-4068-ACA9-8D80725FF005}">
+  <dimension ref="A1:AA17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8:L8"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="52" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="53"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="14"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="52" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="76" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="53"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="56">
-        <v>45146</v>
-      </c>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="53">
+        <v>45069</v>
+      </c>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="16"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="52" t="s">
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="79" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="53"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="55"/>
-      <c r="V3" s="55"/>
-      <c r="W3" s="55"/>
-      <c r="X3" s="55"/>
-      <c r="Y3" s="55"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="17"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="52" t="s">
+      <c r="A4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="53"/>
-      <c r="T4" s="54"/>
-      <c r="U4" s="56"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57"/>
-      <c r="X4" s="57"/>
-      <c r="Y4" s="57"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="15"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="53">
+        <v>45072</v>
+      </c>
+      <c r="V4" s="58"/>
+      <c r="W4" s="58"/>
+      <c r="X4" s="58"/>
+      <c r="Y4" s="58"/>
+      <c r="Z4" s="18"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47" t="s">
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47" t="s">
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47" t="s">
+      <c r="J6" s="63"/>
+      <c r="K6" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="47"/>
+      <c r="L6" s="63"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="47" t="s">
+      <c r="N6" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="43" t="s">
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="44"/>
-      <c r="S6" s="44"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="46" t="s">
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="46"/>
-      <c r="W6" s="46"/>
-      <c r="X6" s="46"/>
-      <c r="Y6" s="46"/>
-      <c r="Z6" s="46"/>
-      <c r="AA6" s="46"/>
+      <c r="V6" s="62"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="62"/>
+      <c r="Y6" s="62"/>
+      <c r="Z6" s="62"/>
+      <c r="AA6" s="62"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
       <c r="E7" s="38"/>
-      <c r="F7" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="41"/>
+      <c r="F7" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
       <c r="I7" s="42" t="s">
         <v>25</v>
       </c>
       <c r="J7" s="42"/>
       <c r="K7" s="42">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L7" s="42"/>
       <c r="M7" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="N7" s="42" t="s">
         <v>19</v>
@@ -3176,13 +3499,1221 @@
         <v>2</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>95</v>
+        <v>31</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42">
+        <v>2</v>
+      </c>
+      <c r="L8" s="42"/>
+      <c r="M8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="37"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>3</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="42"/>
+      <c r="M9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="37"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>4</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42">
+        <v>3</v>
+      </c>
+      <c r="L10" s="42"/>
+      <c r="M10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="37"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A11" s="13"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="65"/>
+      <c r="P11" s="65"/>
+      <c r="Q11" s="65"/>
+      <c r="R11" s="65"/>
+      <c r="S11" s="65"/>
+      <c r="T11" s="65"/>
+      <c r="U11" s="64"/>
+      <c r="V11" s="64"/>
+      <c r="W11" s="64"/>
+      <c r="X11" s="64"/>
+      <c r="Y11" s="64"/>
+      <c r="Z11" s="64"/>
+      <c r="AA11" s="64"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A12" s="13"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="65"/>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="65"/>
+      <c r="S12" s="65"/>
+      <c r="T12" s="65"/>
+      <c r="U12" s="64"/>
+      <c r="V12" s="64"/>
+      <c r="W12" s="64"/>
+      <c r="X12" s="64"/>
+      <c r="Y12" s="64"/>
+      <c r="Z12" s="64"/>
+      <c r="AA12" s="64"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A13" s="13"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="65"/>
+      <c r="P13" s="65"/>
+      <c r="Q13" s="65"/>
+      <c r="R13" s="65"/>
+      <c r="S13" s="65"/>
+      <c r="T13" s="65"/>
+      <c r="U13" s="64"/>
+      <c r="V13" s="64"/>
+      <c r="W13" s="64"/>
+      <c r="X13" s="64"/>
+      <c r="Y13" s="64"/>
+      <c r="Z13" s="64"/>
+      <c r="AA13" s="64"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A14" s="13"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="65"/>
+      <c r="Q14" s="65"/>
+      <c r="R14" s="65"/>
+      <c r="S14" s="65"/>
+      <c r="T14" s="65"/>
+      <c r="U14" s="64"/>
+      <c r="V14" s="64"/>
+      <c r="W14" s="64"/>
+      <c r="X14" s="64"/>
+      <c r="Y14" s="64"/>
+      <c r="Z14" s="64"/>
+      <c r="AA14" s="64"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A15" s="13"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="65"/>
+      <c r="Q15" s="65"/>
+      <c r="R15" s="65"/>
+      <c r="S15" s="65"/>
+      <c r="T15" s="65"/>
+      <c r="U15" s="64"/>
+      <c r="V15" s="64"/>
+      <c r="W15" s="64"/>
+      <c r="X15" s="64"/>
+      <c r="Y15" s="64"/>
+      <c r="Z15" s="64"/>
+      <c r="AA15" s="64"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A16" s="13"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="65"/>
+      <c r="Q16" s="65"/>
+      <c r="R16" s="65"/>
+      <c r="S16" s="65"/>
+      <c r="T16" s="65"/>
+      <c r="U16" s="64"/>
+      <c r="V16" s="64"/>
+      <c r="W16" s="64"/>
+      <c r="X16" s="64"/>
+      <c r="Y16" s="64"/>
+      <c r="Z16" s="64"/>
+      <c r="AA16" s="64"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A17" s="13"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="65"/>
+      <c r="P17" s="65"/>
+      <c r="Q17" s="65"/>
+      <c r="R17" s="65"/>
+      <c r="S17" s="65"/>
+      <c r="T17" s="65"/>
+      <c r="U17" s="64"/>
+      <c r="V17" s="64"/>
+      <c r="W17" s="64"/>
+      <c r="X17" s="64"/>
+      <c r="Y17" s="64"/>
+      <c r="Z17" s="64"/>
+      <c r="AA17" s="64"/>
+    </row>
+  </sheetData>
+  <mergeCells count="98">
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="U8:AA8"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="U17:AA17"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="U15:AA15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="U16:AA16"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="U13:AA13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="U14:AA14"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="U11:AA11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="U12:AA12"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="U10:AA10"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="U6:AA6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="U7:AA7"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="R3:T3"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE2AC0F-C4AF-466C-B027-8F5E6491BC17}">
+  <dimension ref="A1:AA12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="47"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A2" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" s="47"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="53">
+        <v>45146</v>
+      </c>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="47"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="S4" s="47"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="58"/>
+      <c r="W4" s="58"/>
+      <c r="X4" s="58"/>
+      <c r="Y4" s="58"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="15"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="63"/>
+      <c r="M6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="V6" s="62"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="62"/>
+      <c r="Y6" s="62"/>
+      <c r="Z6" s="62"/>
+      <c r="AA6" s="62"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42">
+        <v>2</v>
+      </c>
+      <c r="L7" s="42"/>
+      <c r="M7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="37"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42">
+        <v>2</v>
+      </c>
+      <c r="L8" s="42"/>
+      <c r="M8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="37"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>3</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42">
+        <v>4</v>
+      </c>
+      <c r="L9" s="42"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="37"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>4</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42">
+        <v>4</v>
+      </c>
+      <c r="L10" s="42"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="37"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>5</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42">
+        <v>7</v>
+      </c>
+      <c r="L11" s="42"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37"/>
+      <c r="Z11" s="37"/>
+      <c r="AA11" s="37"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>6</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="42"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="37"/>
+      <c r="AA12" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="61">
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="U10:AA10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="U11:AA11"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="U8:AA8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="U12:AA12"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="U6:AA6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="U7:AA7"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9F0380-6A5A-442D-8FC4-55232AE4172E}">
+  <dimension ref="A1:AA12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10:J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="47"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A2" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" s="47"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="53">
+        <v>45146</v>
+      </c>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="47"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="S4" s="47"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="58"/>
+      <c r="W4" s="58"/>
+      <c r="X4" s="58"/>
+      <c r="Y4" s="58"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="15"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="63"/>
+      <c r="M6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="V6" s="62"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="62"/>
+      <c r="Y6" s="62"/>
+      <c r="Z6" s="62"/>
+      <c r="AA6" s="62"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="G7" s="40"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42">
+        <v>5</v>
+      </c>
+      <c r="L7" s="42"/>
+      <c r="M7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="37"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>92</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
       <c r="F8" s="39" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G8" s="40"/>
       <c r="H8" s="41"/>
@@ -3217,18 +4748,18 @@
         <v>3</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C9" s="38"/>
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
       <c r="F9" s="39" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G9" s="40"/>
       <c r="H9" s="41"/>
       <c r="I9" s="42" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="J9" s="42"/>
       <c r="K9" s="42">
@@ -3258,18 +4789,18 @@
         <v>4</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C10" s="38"/>
       <c r="D10" s="38"/>
       <c r="E10" s="38"/>
       <c r="F10" s="39" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G10" s="40"/>
       <c r="H10" s="41"/>
       <c r="I10" s="42" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="J10" s="42"/>
       <c r="K10" s="42">
@@ -3294,8 +4825,142 @@
       <c r="Z10" s="37"/>
       <c r="AA10" s="37"/>
     </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>5</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="66" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" s="40"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42">
+        <v>200</v>
+      </c>
+      <c r="L11" s="42"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37"/>
+      <c r="Z11" s="37"/>
+      <c r="AA11" s="37"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>6</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="42"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="37"/>
+      <c r="AA12" s="37"/>
+    </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="61">
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="U11:AA11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="U12:AA12"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="U10:AA10"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="U8:AA8"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="U6:AA6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="U7:AA7"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:Y2"/>
     <mergeCell ref="Q9:T9"/>
     <mergeCell ref="U9:AA9"/>
     <mergeCell ref="B9:E9"/>
@@ -3303,6 +4968,592 @@
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="N9:P9"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79AA1B0E-65A6-441D-990E-73926E3709B8}">
+  <dimension ref="A1:AA30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14:L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="47"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A2" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" s="47"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="53">
+        <v>45146</v>
+      </c>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="47"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="S4" s="47"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="58"/>
+      <c r="W4" s="58"/>
+      <c r="X4" s="58"/>
+      <c r="Y4" s="58"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="15"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="63"/>
+      <c r="M6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="V6" s="62"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="62"/>
+      <c r="Y6" s="62"/>
+      <c r="Z6" s="62"/>
+      <c r="AA6" s="62"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42">
+        <v>5</v>
+      </c>
+      <c r="L7" s="42"/>
+      <c r="M7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="37"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42">
+        <v>1</v>
+      </c>
+      <c r="L8" s="42"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="37"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>3</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="G9" s="40"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="42"/>
+      <c r="K9" s="33">
+        <v>1</v>
+      </c>
+      <c r="L9" s="35"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="34"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="66"/>
+      <c r="V9" s="67"/>
+      <c r="W9" s="67"/>
+      <c r="X9" s="67"/>
+      <c r="Y9" s="67"/>
+      <c r="Z9" s="67"/>
+      <c r="AA9" s="68"/>
+    </row>
+    <row r="10" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>4</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42">
+        <v>200</v>
+      </c>
+      <c r="L10" s="42"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="34"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="37"/>
+    </row>
+    <row r="11" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>5</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42">
+        <v>4</v>
+      </c>
+      <c r="L11" s="42"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37"/>
+      <c r="Z11" s="37"/>
+      <c r="AA11" s="37"/>
+    </row>
+    <row r="12" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>6</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42">
+        <v>4</v>
+      </c>
+      <c r="L12" s="42"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="37"/>
+      <c r="AA12" s="37"/>
+    </row>
+    <row r="13" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>7</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42">
+        <v>200</v>
+      </c>
+      <c r="L13" s="42"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="37"/>
+      <c r="Z13" s="37"/>
+      <c r="AA13" s="37"/>
+    </row>
+    <row r="14" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="2">
+        <v>8</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="42"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="37"/>
+      <c r="AA14" s="37"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A30" s="13"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="65"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="65"/>
+      <c r="O30" s="65"/>
+      <c r="P30" s="65"/>
+      <c r="Q30" s="65"/>
+      <c r="R30" s="65"/>
+      <c r="S30" s="65"/>
+      <c r="T30" s="65"/>
+      <c r="U30" s="64"/>
+      <c r="V30" s="64"/>
+      <c r="W30" s="64"/>
+      <c r="X30" s="64"/>
+      <c r="Y30" s="64"/>
+      <c r="Z30" s="64"/>
+      <c r="AA30" s="64"/>
+    </row>
+  </sheetData>
+  <mergeCells count="82">
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="U13:AA13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="U14:AA14"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="U11:AA11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="U12:AA12"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:P11"/>
     <mergeCell ref="E1:Q1"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="U1:Y1"/>
@@ -3336,1096 +5587,6 @@
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="N8:P8"/>
     <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="U10:AA10"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="N10:P10"/>
-  </mergeCells>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE2AC0F-C4AF-466C-B027-8F5E6491BC17}">
-  <dimension ref="A1:AA12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="S1" s="53"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="58" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="S2" s="53"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="56">
-        <v>45146</v>
-      </c>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="S3" s="53"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="55"/>
-      <c r="V3" s="55"/>
-      <c r="W3" s="55"/>
-      <c r="X3" s="55"/>
-      <c r="Y3" s="55"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="S4" s="53"/>
-      <c r="T4" s="54"/>
-      <c r="U4" s="56"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57"/>
-      <c r="X4" s="57"/>
-      <c r="Y4" s="57"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="15"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="47"/>
-      <c r="M6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N6" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="R6" s="44"/>
-      <c r="S6" s="44"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="V6" s="46"/>
-      <c r="W6" s="46"/>
-      <c r="X6" s="46"/>
-      <c r="Y6" s="46"/>
-      <c r="Z6" s="46"/>
-      <c r="AA6" s="46"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42">
-        <v>2</v>
-      </c>
-      <c r="L7" s="42"/>
-      <c r="M7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="37"/>
-      <c r="Z7" s="37"/>
-      <c r="AA7" s="37"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A8" s="2">
-        <v>2</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42">
-        <v>2</v>
-      </c>
-      <c r="L8" s="42"/>
-      <c r="M8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N8" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="37"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A9" s="2">
-        <v>3</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42">
-        <v>4</v>
-      </c>
-      <c r="L9" s="42"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="37"/>
-      <c r="AA9" s="37"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A10" s="2">
-        <v>4</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42">
-        <v>4</v>
-      </c>
-      <c r="L10" s="42"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="37"/>
-      <c r="AA10" s="37"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A11" s="2">
-        <v>5</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42">
-        <v>7</v>
-      </c>
-      <c r="L11" s="42"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="37"/>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="37"/>
-      <c r="Z11" s="37"/>
-      <c r="AA11" s="37"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A12" s="2">
-        <v>6</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42">
-        <v>1</v>
-      </c>
-      <c r="L12" s="42"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="37"/>
-      <c r="AA12" s="37"/>
-    </row>
-  </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="E3:Q4"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="U6:AA6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="U7:AA7"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="U12:AA12"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="U8:AA8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="U9:AA9"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="U10:AA10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="U11:AA11"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="N10:P10"/>
-  </mergeCells>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79AA1B0E-65A6-441D-990E-73926E3709B8}">
-  <dimension ref="A1:AA30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:Q2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="58" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="S1" s="53"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="S2" s="53"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="56">
-        <v>45146</v>
-      </c>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="S3" s="53"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="55"/>
-      <c r="V3" s="55"/>
-      <c r="W3" s="55"/>
-      <c r="X3" s="55"/>
-      <c r="Y3" s="55"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="S4" s="53"/>
-      <c r="T4" s="54"/>
-      <c r="U4" s="56"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57"/>
-      <c r="X4" s="57"/>
-      <c r="Y4" s="57"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="15"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="47"/>
-      <c r="M6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N6" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="R6" s="44"/>
-      <c r="S6" s="44"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="V6" s="46"/>
-      <c r="W6" s="46"/>
-      <c r="X6" s="46"/>
-      <c r="Y6" s="46"/>
-      <c r="Z6" s="46"/>
-      <c r="AA6" s="46"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42">
-        <v>5</v>
-      </c>
-      <c r="L7" s="42"/>
-      <c r="M7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N7" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="37"/>
-      <c r="Z7" s="37"/>
-      <c r="AA7" s="37"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A8" s="2">
-        <v>2</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42">
-        <v>1</v>
-      </c>
-      <c r="L8" s="42"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="37"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A9" s="2">
-        <v>3</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="G9" s="40"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="35"/>
-      <c r="K9" s="33">
-        <v>1</v>
-      </c>
-      <c r="L9" s="35"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="O9" s="34"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="66"/>
-      <c r="V9" s="67"/>
-      <c r="W9" s="67"/>
-      <c r="X9" s="67"/>
-      <c r="Y9" s="67"/>
-      <c r="Z9" s="67"/>
-      <c r="AA9" s="68"/>
-    </row>
-    <row r="10" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="2">
-        <v>4</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42">
-        <v>200</v>
-      </c>
-      <c r="L10" s="42"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="O10" s="34"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="42"/>
-      <c r="T10" s="42"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="37"/>
-      <c r="AA10" s="37"/>
-    </row>
-    <row r="11" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="2">
-        <v>5</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42">
-        <v>4</v>
-      </c>
-      <c r="L11" s="42"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="42"/>
-      <c r="S11" s="42"/>
-      <c r="T11" s="42"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="37"/>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="37"/>
-      <c r="Z11" s="37"/>
-      <c r="AA11" s="37"/>
-    </row>
-    <row r="12" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="2">
-        <v>6</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42">
-        <v>4</v>
-      </c>
-      <c r="L12" s="42"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="42"/>
-      <c r="T12" s="42"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="37"/>
-      <c r="AA12" s="37"/>
-    </row>
-    <row r="13" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="2">
-        <v>7</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42">
-        <v>200</v>
-      </c>
-      <c r="L13" s="42"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="42"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="37"/>
-      <c r="Z13" s="37"/>
-      <c r="AA13" s="37"/>
-    </row>
-    <row r="14" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="2">
-        <v>8</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42">
-        <v>1</v>
-      </c>
-      <c r="L14" s="42"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="42"/>
-      <c r="T14" s="42"/>
-      <c r="U14" s="37"/>
-      <c r="V14" s="37"/>
-      <c r="W14" s="37"/>
-      <c r="X14" s="37"/>
-      <c r="Y14" s="37"/>
-      <c r="Z14" s="37"/>
-      <c r="AA14" s="37"/>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A30" s="13"/>
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="64"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="64"/>
-      <c r="O30" s="64"/>
-      <c r="P30" s="64"/>
-      <c r="Q30" s="64"/>
-      <c r="R30" s="64"/>
-      <c r="S30" s="64"/>
-      <c r="T30" s="64"/>
-      <c r="U30" s="65"/>
-      <c r="V30" s="65"/>
-      <c r="W30" s="65"/>
-      <c r="X30" s="65"/>
-      <c r="Y30" s="65"/>
-      <c r="Z30" s="65"/>
-      <c r="AA30" s="65"/>
-    </row>
-  </sheetData>
-  <mergeCells count="82">
-    <mergeCell ref="U30:AA30"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="Q30:T30"/>
     <mergeCell ref="U9:AA9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="F10:H10"/>
@@ -4440,6 +5601,514 @@
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="N9:P9"/>
     <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="U30:AA30"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="Q30:T30"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E9B359-EFD8-4164-9BD1-98BCA9877C8B}">
+  <dimension ref="A1:AA13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7:L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A1" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="76" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="47"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="31"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A2" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="76" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" s="47"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="53">
+        <v>45146</v>
+      </c>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="31"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A3" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="79" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="47"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="31"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="S4" s="47"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="58"/>
+      <c r="W4" s="58"/>
+      <c r="X4" s="58"/>
+      <c r="Y4" s="58"/>
+      <c r="Z4" s="31"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="63"/>
+      <c r="M6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="V6" s="62"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="62"/>
+      <c r="Y6" s="62"/>
+      <c r="Z6" s="62"/>
+      <c r="AA6" s="62"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42">
+        <v>2</v>
+      </c>
+      <c r="L7" s="42"/>
+      <c r="M7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="37"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42">
+        <v>2</v>
+      </c>
+      <c r="L8" s="42"/>
+      <c r="M8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="37"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>3</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42">
+        <v>4</v>
+      </c>
+      <c r="L9" s="42"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="37"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>4</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42">
+        <v>4</v>
+      </c>
+      <c r="L10" s="42"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="37"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>5</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42">
+        <v>4</v>
+      </c>
+      <c r="L11" s="42"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37"/>
+      <c r="Z11" s="37"/>
+      <c r="AA11" s="37"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>6</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42">
+        <v>4</v>
+      </c>
+      <c r="L12" s="42"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="37"/>
+      <c r="AA12" s="37"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>7</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42">
+        <v>4</v>
+      </c>
+      <c r="L13" s="42"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="37"/>
+      <c r="Z13" s="37"/>
+      <c r="AA13" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="70">
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="U12:AA12"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="U13:AA13"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="N13:P13"/>
     <mergeCell ref="U8:AA8"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="F8:H8"/>
@@ -4447,7 +6116,6 @@
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="N8:P8"/>
     <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q6:T6"/>
     <mergeCell ref="U6:AA6"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F7:H7"/>
@@ -4461,545 +6129,26 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="N6:P6"/>
-    <mergeCell ref="E3:Q4"/>
-    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="Q6:T6"/>
     <mergeCell ref="U3:Y3"/>
     <mergeCell ref="R4:T4"/>
     <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D4"/>
     <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="E3:Q4"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:Q2"/>
     <mergeCell ref="R2:T2"/>
     <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="U11:AA11"/>
+    <mergeCell ref="R3:T3"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="F12:H12"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K12:L12"/>
     <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="U12:AA12"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="U13:AA13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="U14:AA14"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="N13:P13"/>
-  </mergeCells>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E9B359-EFD8-4164-9BD1-98BCA9877C8B}">
-  <dimension ref="A1:AA13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:Q4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="76" t="s">
-        <v>132</v>
-      </c>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="S1" s="53"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="31"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="76" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="S2" s="53"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="56">
-        <v>45146</v>
-      </c>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="31"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A3" s="70" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="79" t="s">
-        <v>133</v>
-      </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="S3" s="53"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="55"/>
-      <c r="V3" s="55"/>
-      <c r="W3" s="55"/>
-      <c r="X3" s="55"/>
-      <c r="Y3" s="55"/>
-      <c r="Z3" s="31"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A4" s="73"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="S4" s="53"/>
-      <c r="T4" s="54"/>
-      <c r="U4" s="56"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57"/>
-      <c r="X4" s="57"/>
-      <c r="Y4" s="57"/>
-      <c r="Z4" s="31"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="47"/>
-      <c r="M6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N6" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="R6" s="44"/>
-      <c r="S6" s="44"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="V6" s="46"/>
-      <c r="W6" s="46"/>
-      <c r="X6" s="46"/>
-      <c r="Y6" s="46"/>
-      <c r="Z6" s="46"/>
-      <c r="AA6" s="46"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42">
-        <v>2</v>
-      </c>
-      <c r="L7" s="42"/>
-      <c r="M7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="37"/>
-      <c r="Z7" s="37"/>
-      <c r="AA7" s="37"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A8" s="2">
-        <v>2</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42">
-        <v>2</v>
-      </c>
-      <c r="L8" s="42"/>
-      <c r="M8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N8" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="37"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A9" s="2">
-        <v>3</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42">
-        <v>4</v>
-      </c>
-      <c r="L9" s="42"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="37"/>
-      <c r="AA9" s="37"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A10" s="2">
-        <v>4</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38" t="s">
-        <v>128</v>
-      </c>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42">
-        <v>4</v>
-      </c>
-      <c r="L10" s="42"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="37"/>
-      <c r="AA10" s="37"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A11" s="2">
-        <v>5</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42">
-        <v>4</v>
-      </c>
-      <c r="L11" s="42"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="37"/>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="37"/>
-      <c r="Z11" s="37"/>
-      <c r="AA11" s="37"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A12" s="2">
-        <v>6</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42">
-        <v>4</v>
-      </c>
-      <c r="L12" s="42"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="37"/>
-      <c r="AA12" s="37"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A13" s="2">
-        <v>7</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42">
-        <v>4</v>
-      </c>
-      <c r="L13" s="42"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="37"/>
-      <c r="Z13" s="37"/>
-      <c r="AA13" s="37"/>
-    </row>
-  </sheetData>
-  <mergeCells count="70">
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="U9:AA9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:P9"/>
     <mergeCell ref="Q10:T10"/>
     <mergeCell ref="U10:AA10"/>
     <mergeCell ref="Q11:T11"/>
@@ -5014,25 +6163,919 @@
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:P9"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E86C57-CDFB-437D-99D0-0063AA09A240}">
+  <dimension ref="A1:AA21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13:H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A1" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="76" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="47"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="31"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A2" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="76" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" s="47"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="53">
+        <v>45146</v>
+      </c>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="31"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A3" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="79" t="s">
+        <v>158</v>
+      </c>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="47"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="31"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="S4" s="47"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="58"/>
+      <c r="W4" s="58"/>
+      <c r="X4" s="58"/>
+      <c r="Y4" s="58"/>
+      <c r="Z4" s="31"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="63"/>
+      <c r="M6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="V6" s="62"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="62"/>
+      <c r="Y6" s="62"/>
+      <c r="Z6" s="62"/>
+      <c r="AA6" s="62"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42">
+        <v>6</v>
+      </c>
+      <c r="L7" s="42"/>
+      <c r="M7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="37"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42">
+        <v>20</v>
+      </c>
+      <c r="L8" s="42"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="37"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>3</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="42"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="37"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>4</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="42"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="37"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>5</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42">
+        <v>10</v>
+      </c>
+      <c r="L11" s="42"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37"/>
+      <c r="Z11" s="37"/>
+      <c r="AA11" s="37"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>6</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42">
+        <v>10</v>
+      </c>
+      <c r="L12" s="42"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="37"/>
+      <c r="AA12" s="37"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>7</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42">
+        <v>2</v>
+      </c>
+      <c r="L13" s="42"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="37"/>
+      <c r="Z13" s="37"/>
+      <c r="AA13" s="37"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A14" s="2">
+        <v>8</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42">
+        <v>2</v>
+      </c>
+      <c r="L14" s="42"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="37"/>
+      <c r="AA14" s="37"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
+        <v>9</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42">
+        <v>2</v>
+      </c>
+      <c r="L15" s="42"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="37"/>
+      <c r="AA15" s="37"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
+        <v>10</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42">
+        <v>2</v>
+      </c>
+      <c r="L16" s="42"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="37"/>
+      <c r="AA16" s="37"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A17" s="2">
+        <v>11</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="42"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="37"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="37"/>
+      <c r="Y17" s="37"/>
+      <c r="Z17" s="37"/>
+      <c r="AA17" s="37"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A18" s="2">
+        <v>12</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42">
+        <v>6</v>
+      </c>
+      <c r="L18" s="42"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="37"/>
+      <c r="AA18" s="37"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A19" s="2">
+        <v>13</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="42"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="37"/>
+      <c r="Y19" s="37"/>
+      <c r="Z19" s="37"/>
+      <c r="AA19" s="37"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A20" s="2">
+        <v>14</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42">
+        <v>6</v>
+      </c>
+      <c r="L20" s="42"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="37"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="37"/>
+      <c r="Y20" s="37"/>
+      <c r="Z20" s="37"/>
+      <c r="AA20" s="37"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A21" s="2">
+        <v>15</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="42"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="37"/>
+      <c r="Y21" s="37"/>
+      <c r="Z21" s="37"/>
+      <c r="AA21" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="126">
+    <mergeCell ref="U20:AA20"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="U21:AA21"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="U18:AA18"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="U19:AA19"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="U16:AA16"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="U17:AA17"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="U14:AA14"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="U15:AA15"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="U12:AA12"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="U13:AA13"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="F12:H12"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K12:L12"/>
     <mergeCell ref="N12:P12"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="E3:Q4"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="U10:AA10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="U11:AA11"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="U8:AA8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:T8"/>
     <mergeCell ref="U6:AA6"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F7:H7"/>
@@ -5047,47 +7090,45 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="N6:P6"/>
     <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="U8:AA8"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="U12:AA12"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="U13:AA13"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:Y2"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57770D90-52BF-4068-ACA9-8D80725FF005}">
-  <dimension ref="A1:AA17"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00889058-6AAA-47FA-9F51-168D135D51E1}">
+  <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="63"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="52"/>
       <c r="E1" s="76" t="s">
-        <v>30</v>
+        <v>185</v>
       </c>
       <c r="F1" s="77"/>
       <c r="G1" s="77"/>
@@ -5101,19 +7142,19 @@
       <c r="O1" s="77"/>
       <c r="P1" s="77"/>
       <c r="Q1" s="77"/>
-      <c r="R1" s="52" t="s">
+      <c r="R1" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="53"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="14"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="31"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A2" s="69" t="s">
@@ -5123,7 +7164,7 @@
       <c r="C2" s="69"/>
       <c r="D2" s="69"/>
       <c r="E2" s="76" t="s">
-        <v>34</v>
+        <v>187</v>
       </c>
       <c r="F2" s="77"/>
       <c r="G2" s="77"/>
@@ -5137,19 +7178,19 @@
       <c r="O2" s="77"/>
       <c r="P2" s="77"/>
       <c r="Q2" s="78"/>
-      <c r="R2" s="52" t="s">
+      <c r="R2" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="53"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="56">
-        <v>45069</v>
-      </c>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="16"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="53">
+        <v>45146</v>
+      </c>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="31"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3" s="70" t="s">
@@ -5159,125 +7200,121 @@
       <c r="C3" s="71"/>
       <c r="D3" s="72"/>
       <c r="E3" s="79" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="53"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="V3" s="55"/>
-      <c r="W3" s="55"/>
-      <c r="X3" s="55"/>
-      <c r="Y3" s="55"/>
-      <c r="Z3" s="17"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="31"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4" s="73"/>
       <c r="B4" s="74"/>
       <c r="C4" s="74"/>
       <c r="D4" s="75"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="52" t="s">
+      <c r="E4" s="56"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="53"/>
-      <c r="T4" s="54"/>
-      <c r="U4" s="56">
-        <v>45072</v>
-      </c>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57"/>
-      <c r="X4" s="57"/>
-      <c r="Y4" s="57"/>
-      <c r="Z4" s="18"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="58"/>
+      <c r="W4" s="58"/>
+      <c r="X4" s="58"/>
+      <c r="Y4" s="58"/>
+      <c r="Z4" s="31"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47" t="s">
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47" t="s">
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47" t="s">
+      <c r="J6" s="63"/>
+      <c r="K6" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="47"/>
+      <c r="L6" s="63"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="47" t="s">
+      <c r="N6" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="43" t="s">
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="44"/>
-      <c r="S6" s="44"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="46" t="s">
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="46"/>
-      <c r="W6" s="46"/>
-      <c r="X6" s="46"/>
-      <c r="Y6" s="46"/>
-      <c r="Z6" s="46"/>
-      <c r="AA6" s="46"/>
+      <c r="V6" s="62"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="62"/>
+      <c r="Y6" s="62"/>
+      <c r="Z6" s="62"/>
+      <c r="AA6" s="62"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
+      <c r="B7" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="41"/>
       <c r="F7" s="38" t="s">
-        <v>21</v>
+        <v>184</v>
       </c>
       <c r="G7" s="38"/>
       <c r="H7" s="38"/>
@@ -5286,20 +7323,18 @@
       </c>
       <c r="J7" s="42"/>
       <c r="K7" s="42">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L7" s="42"/>
       <c r="M7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N7" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="33" t="s">
+      <c r="N7" s="33" t="s">
         <v>19</v>
       </c>
+      <c r="O7" s="34"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="33"/>
       <c r="R7" s="34"/>
       <c r="S7" s="34"/>
       <c r="T7" s="35"/>
@@ -5315,14 +7350,14 @@
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
+      <c r="B8" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="41"/>
       <c r="F8" s="38" t="s">
-        <v>32</v>
+        <v>189</v>
       </c>
       <c r="G8" s="38"/>
       <c r="H8" s="38"/>
@@ -5331,20 +7366,16 @@
       </c>
       <c r="J8" s="42"/>
       <c r="K8" s="42">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="L8" s="42"/>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="2"/>
+      <c r="N8" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="33" t="s">
-        <v>19</v>
-      </c>
+      <c r="O8" s="34"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="33"/>
       <c r="R8" s="34"/>
       <c r="S8" s="34"/>
       <c r="T8" s="35"/>
@@ -5356,317 +7387,15 @@
       <c r="Z8" s="37"/>
       <c r="AA8" s="37"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A9" s="2">
-        <v>3</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" s="42"/>
-      <c r="M9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N9" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="V9" s="37"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="37"/>
-      <c r="AA9" s="37"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A10" s="2">
-        <v>4</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42">
-        <v>3</v>
-      </c>
-      <c r="L10" s="42"/>
-      <c r="M10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N10" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="R10" s="42"/>
-      <c r="S10" s="42"/>
-      <c r="T10" s="42"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="37"/>
-      <c r="AA10" s="37"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A11" s="13"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="64"/>
-      <c r="O11" s="64"/>
-      <c r="P11" s="64"/>
-      <c r="Q11" s="64"/>
-      <c r="R11" s="64"/>
-      <c r="S11" s="64"/>
-      <c r="T11" s="64"/>
-      <c r="U11" s="65"/>
-      <c r="V11" s="65"/>
-      <c r="W11" s="65"/>
-      <c r="X11" s="65"/>
-      <c r="Y11" s="65"/>
-      <c r="Z11" s="65"/>
-      <c r="AA11" s="65"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A12" s="13"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="64"/>
-      <c r="O12" s="64"/>
-      <c r="P12" s="64"/>
-      <c r="Q12" s="64"/>
-      <c r="R12" s="64"/>
-      <c r="S12" s="64"/>
-      <c r="T12" s="64"/>
-      <c r="U12" s="65"/>
-      <c r="V12" s="65"/>
-      <c r="W12" s="65"/>
-      <c r="X12" s="65"/>
-      <c r="Y12" s="65"/>
-      <c r="Z12" s="65"/>
-      <c r="AA12" s="65"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A13" s="13"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="64"/>
-      <c r="P13" s="64"/>
-      <c r="Q13" s="64"/>
-      <c r="R13" s="64"/>
-      <c r="S13" s="64"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="65"/>
-      <c r="V13" s="65"/>
-      <c r="W13" s="65"/>
-      <c r="X13" s="65"/>
-      <c r="Y13" s="65"/>
-      <c r="Z13" s="65"/>
-      <c r="AA13" s="65"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A14" s="13"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="64"/>
-      <c r="O14" s="64"/>
-      <c r="P14" s="64"/>
-      <c r="Q14" s="64"/>
-      <c r="R14" s="64"/>
-      <c r="S14" s="64"/>
-      <c r="T14" s="64"/>
-      <c r="U14" s="65"/>
-      <c r="V14" s="65"/>
-      <c r="W14" s="65"/>
-      <c r="X14" s="65"/>
-      <c r="Y14" s="65"/>
-      <c r="Z14" s="65"/>
-      <c r="AA14" s="65"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A15" s="13"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="64"/>
-      <c r="P15" s="64"/>
-      <c r="Q15" s="64"/>
-      <c r="R15" s="64"/>
-      <c r="S15" s="64"/>
-      <c r="T15" s="64"/>
-      <c r="U15" s="65"/>
-      <c r="V15" s="65"/>
-      <c r="W15" s="65"/>
-      <c r="X15" s="65"/>
-      <c r="Y15" s="65"/>
-      <c r="Z15" s="65"/>
-      <c r="AA15" s="65"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A16" s="13"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="64"/>
-      <c r="O16" s="64"/>
-      <c r="P16" s="64"/>
-      <c r="Q16" s="64"/>
-      <c r="R16" s="64"/>
-      <c r="S16" s="64"/>
-      <c r="T16" s="64"/>
-      <c r="U16" s="65"/>
-      <c r="V16" s="65"/>
-      <c r="W16" s="65"/>
-      <c r="X16" s="65"/>
-      <c r="Y16" s="65"/>
-      <c r="Z16" s="65"/>
-      <c r="AA16" s="65"/>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A17" s="13"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="64"/>
-      <c r="P17" s="64"/>
-      <c r="Q17" s="64"/>
-      <c r="R17" s="64"/>
-      <c r="S17" s="64"/>
-      <c r="T17" s="64"/>
-      <c r="U17" s="65"/>
-      <c r="V17" s="65"/>
-      <c r="W17" s="65"/>
-      <c r="X17" s="65"/>
-      <c r="Y17" s="65"/>
-      <c r="Z17" s="65"/>
-      <c r="AA17" s="65"/>
-    </row>
   </sheetData>
-  <mergeCells count="98">
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="E3:Q4"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="R3:T3"/>
+  <mergeCells count="35">
+    <mergeCell ref="U8:AA8"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:T8"/>
     <mergeCell ref="U6:AA6"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F7:H7"/>
@@ -5681,7 +7410,855 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="N6:P6"/>
     <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47093B1E-4F13-4684-B5A1-F6BE9B073947}">
+  <dimension ref="A1:AA11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A1" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="76" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="47"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="31"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A2" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="76" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" s="47"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="53">
+        <v>45146</v>
+      </c>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="31"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A3" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="79" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="47"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="31"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="S4" s="47"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="58"/>
+      <c r="W4" s="58"/>
+      <c r="X4" s="58"/>
+      <c r="Y4" s="58"/>
+      <c r="Z4" s="31"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="63"/>
+      <c r="M6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="V6" s="62"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="62"/>
+      <c r="Y6" s="62"/>
+      <c r="Z6" s="62"/>
+      <c r="AA6" s="62"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42">
+        <v>6</v>
+      </c>
+      <c r="L7" s="42"/>
+      <c r="M7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="37"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42">
+        <v>5</v>
+      </c>
+      <c r="L8" s="42"/>
+      <c r="M8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="37"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>3</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="42"/>
+      <c r="M9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="37"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>4</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="42"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="37"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>5</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42">
+        <v>200</v>
+      </c>
+      <c r="L11" s="42"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37"/>
+      <c r="Z11" s="37"/>
+      <c r="AA11" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="56">
+    <mergeCell ref="U10:AA10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="U11:AA11"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="U8:AA8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:T9"/>
     <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="U6:AA6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="U7:AA7"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DC8C6B-44BC-428E-8430-43D087E92B4D}">
+  <dimension ref="A1:AA10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A1" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="76" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="47"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="31"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A2" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="76" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" s="47"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="53">
+        <v>45146</v>
+      </c>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="31"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A3" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="79" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="47"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="31"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="S4" s="47"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="58"/>
+      <c r="W4" s="58"/>
+      <c r="X4" s="58"/>
+      <c r="Y4" s="58"/>
+      <c r="Z4" s="31"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="63"/>
+      <c r="M6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="V6" s="62"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="62"/>
+      <c r="Y6" s="62"/>
+      <c r="Z6" s="62"/>
+      <c r="AA6" s="62"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42">
+        <v>6</v>
+      </c>
+      <c r="L7" s="42"/>
+      <c r="M7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="37"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42">
+        <v>5</v>
+      </c>
+      <c r="L8" s="42"/>
+      <c r="M8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="37"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>3</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="42"/>
+      <c r="M9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="37"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>4</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42">
+        <v>200</v>
+      </c>
+      <c r="L10" s="42"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="49">
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="I10:J10"/>
@@ -5689,68 +8266,48 @@
     <mergeCell ref="N10:P10"/>
     <mergeCell ref="Q10:T10"/>
     <mergeCell ref="U10:AA10"/>
+    <mergeCell ref="U8:AA8"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="N9:P9"/>
     <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="U11:AA11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="U12:AA12"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="U13:AA13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="U14:AA14"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="U15:AA15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="U16:AA16"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="U17:AA17"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="Q17:T17"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="U8:AA8"/>
+    <mergeCell ref="U9:AA9"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="U6:AA6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="U7:AA7"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:Y2"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
